--- a/cbrunner/Parameters/Parameters_gromo_m2.xlsx
+++ b/cbrunner/Parameters/Parameters_gromo_m2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,13 +451,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.343469574356028</v>
+        <v>2.432676851656453</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2702565933881179</v>
+        <v>0.2662083711466154</v>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.8809640087180723</v>
+        <v>-0.8244540755647926</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2640692808400575</v>
+        <v>0.2603970943620816</v>
       </c>
       <c r="D3" t="n">
-        <v>-30</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.146123626145594</v>
+        <v>-1.200464499608692</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2635597009391681</v>
+        <v>0.2594815141480089</v>
       </c>
       <c r="D4" t="n">
-        <v>-23</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="5">
@@ -499,13 +499,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.564678790383393</v>
+        <v>-1.630679420145174</v>
       </c>
       <c r="C5" t="n">
-        <v>0.260672297310061</v>
+        <v>0.2568301720037588</v>
       </c>
       <c r="D5" t="n">
-        <v>-17</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="6">
@@ -515,10 +515,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.501230237832315</v>
+        <v>-1.51204522113978</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2588957324692761</v>
+        <v>0.2550916500396332</v>
       </c>
       <c r="D6" t="n">
         <v>-17</v>
@@ -531,13 +531,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.413887174663741</v>
+        <v>-1.354800006060642</v>
       </c>
       <c r="C7" t="n">
-        <v>0.256527530343653</v>
+        <v>0.2534636179334232</v>
       </c>
       <c r="D7" t="n">
-        <v>-18</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.489403962026727</v>
+        <v>-1.556255669501449</v>
       </c>
       <c r="C8" t="n">
-        <v>0.257758365010297</v>
+        <v>0.2533802410089249</v>
       </c>
       <c r="D8" t="n">
-        <v>-17</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="9">
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.33528677604947</v>
+        <v>-1.351353210767505</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2710185679151781</v>
+        <v>0.267346885878573</v>
       </c>
       <c r="D9" t="n">
         <v>-20</v>
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.18487677273086</v>
+        <v>-1.213964184898409</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2576333007799746</v>
+        <v>0.2540154626214912</v>
       </c>
       <c r="D10" t="n">
-        <v>-22</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="11">
@@ -595,13 +595,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.7327401051353293</v>
+        <v>-0.7022333295360401</v>
       </c>
       <c r="C11" t="n">
-        <v>0.256396207062851</v>
+        <v>0.2529084141971671</v>
       </c>
       <c r="D11" t="n">
-        <v>-35</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="12">
@@ -611,13 +611,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.8524450240628023</v>
+        <v>-0.9046683724825942</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3383609036157396</v>
+        <v>0.3345538227345048</v>
       </c>
       <c r="D12" t="n">
-        <v>-40</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="13">
@@ -627,13 +627,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.485092458014296</v>
+        <v>-1.541321991819598</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2862204663260961</v>
+        <v>0.2813676960113429</v>
       </c>
       <c r="D13" t="n">
-        <v>-19</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="14">
@@ -643,13 +643,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.508793113200817</v>
+        <v>-1.596099500027267</v>
       </c>
       <c r="C14" t="n">
-        <v>0.26333100327515</v>
+        <v>0.2585768295483789</v>
       </c>
       <c r="D14" t="n">
-        <v>-17</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="15">
@@ -659,26 +659,26 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.036534765435383</v>
+        <v>-1.004508295038635</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2600999428889371</v>
+        <v>0.2565443699740062</v>
       </c>
       <c r="D15" t="n">
-        <v>-25</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>DAB</t>
+          <t>Dab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.228801515244698</v>
+        <v>1.242804279374157</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04764740880602303</v>
+        <v>0.04667046745597996</v>
       </c>
       <c r="D16" t="n">
         <v>4</v>
@@ -687,97 +687,97 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>DAD</t>
+          <t>Dad</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.09977067311683341</v>
+        <v>0.1363713731972431</v>
       </c>
       <c r="C17" t="n">
-        <v>0.05932752695293259</v>
+        <v>0.05856614550473398</v>
       </c>
       <c r="D17" t="n">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>DAF</t>
+          <t>Daf</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9294325016043683</v>
+        <v>0.9402948912983349</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1080737049773381</v>
+        <v>0.1069031970822603</v>
       </c>
       <c r="D18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>DAP</t>
+          <t>Dap</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.09538664981938114</v>
+        <v>-0.09074096852411419</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03601246009633658</v>
+        <v>0.03548590117365455</v>
       </c>
       <c r="D19" t="n">
-        <v>-38</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>PNSD</t>
+          <t>Sd</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.3007738026813078</v>
+        <v>-0.3858069473573486</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09869774085645393</v>
+        <v>0.0953750891237497</v>
       </c>
       <c r="D20" t="n">
-        <v>-33</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>HI</t>
+          <t>Hi</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.511241529759355</v>
+        <v>-0.2186923858116294</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1583662591573927</v>
+        <v>0.1632377043156748</v>
       </c>
       <c r="D21" t="n">
-        <v>31</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>PNSD:HI</t>
+          <t>Sd:Hi</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.5256239613001245</v>
+        <v>0.2027254015934002</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1603967298795078</v>
+        <v>0.1650982839798288</v>
       </c>
       <c r="D22" t="n">
-        <v>-31</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.004387712154677969</v>
+        <v>-0.004328819895422021</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01761638010510862</v>
+        <v>0.01760910340685818</v>
       </c>
       <c r="D23" t="n">
-        <v>401</v>
+        <v>-407</v>
       </c>
     </row>
     <row r="24">
@@ -803,13 +803,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.09524844028889498</v>
+        <v>0.08756148141626639</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01439578671871524</v>
+        <v>0.0145558251223537</v>
       </c>
       <c r="D24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
@@ -819,10 +819,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.21913862284867</v>
+        <v>0.2103665465194891</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02420178920040928</v>
+        <v>0.02389943521056409</v>
       </c>
       <c r="D25" t="n">
         <v>11</v>
@@ -835,13 +835,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.11914859043402</v>
+        <v>0.02438501281041213</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01922349166216127</v>
+        <v>0.01712440204995972</v>
       </c>
       <c r="D26" t="n">
-        <v>-16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -851,13 +851,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.04845037229276535</v>
+        <v>0.02578148768617824</v>
       </c>
       <c r="C27" t="n">
-        <v>0.02126701777330419</v>
+        <v>0.02151700804841991</v>
       </c>
       <c r="D27" t="n">
-        <v>44</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28">
@@ -867,93 +867,45 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01408702924059889</v>
+        <v>0.05582251801510624</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01317908808468631</v>
+        <v>0.01326271530122993</v>
       </c>
       <c r="D28" t="n">
-        <v>94</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Tn_z:Ta_z</t>
+          <t>Nd_z</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.0102489381084035</v>
+        <v>-0.06296052739708416</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01182696934904879</v>
+        <v>0.01614236201590393</v>
       </c>
       <c r="D29" t="n">
-        <v>-115</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Wn_z:Wa_z</t>
+          <t>Ca_z</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.08370686613526572</v>
+        <v>0.1232542631447636</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01718283295879191</v>
+        <v>0.02328254333325567</v>
       </c>
       <c r="D30" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>Nd_z</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-0.07936590903326686</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.01711683907236699</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-22</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>Ca_z</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.1427373346331596</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.02354838731123354</v>
-      </c>
-      <c r="D32" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>Nd_z:Ca_z</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>-0.02674376508233983</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.01476544166061478</v>
-      </c>
-      <c r="D33" t="n">
-        <v>-55</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
